--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H2">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N2">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O2">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P2">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q2">
-        <v>0.2408481799173329</v>
+        <v>0.4782538918016667</v>
       </c>
       <c r="R2">
-        <v>0.2408481799173329</v>
+        <v>4.304285026215</v>
       </c>
       <c r="S2">
-        <v>0.01611000179608232</v>
+        <v>0.02365005541651134</v>
       </c>
       <c r="T2">
-        <v>0.01611000179608232</v>
+        <v>0.02365005541651134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H3">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N3">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O3">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P3">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q3">
-        <v>0.4748637928293894</v>
+        <v>0.6690673661315556</v>
       </c>
       <c r="R3">
-        <v>0.4748637928293894</v>
+        <v>6.021606295184</v>
       </c>
       <c r="S3">
-        <v>0.03176298263080784</v>
+        <v>0.03308594150019507</v>
       </c>
       <c r="T3">
-        <v>0.03176298263080784</v>
+        <v>0.03308594150019508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H4">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N4">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O4">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P4">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q4">
-        <v>0.3861372532322913</v>
+        <v>0.5469637902955555</v>
       </c>
       <c r="R4">
-        <v>0.3861372532322913</v>
+        <v>4.92267411266</v>
       </c>
       <c r="S4">
-        <v>0.02582818705643384</v>
+        <v>0.02704781743141456</v>
       </c>
       <c r="T4">
-        <v>0.02582818705643384</v>
+        <v>0.02704781743141457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H5">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N5">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O5">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P5">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q5">
-        <v>0.3603996330914594</v>
+        <v>0.5025170036348888</v>
       </c>
       <c r="R5">
-        <v>0.3603996330914594</v>
+        <v>4.522653032714</v>
       </c>
       <c r="S5">
-        <v>0.02410663322597516</v>
+        <v>0.02484988661343275</v>
       </c>
       <c r="T5">
-        <v>0.02410663322597516</v>
+        <v>0.02484988661343275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H6">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N6">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O6">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P6">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q6">
-        <v>0.8238047166845526</v>
+        <v>1.133473281239667</v>
       </c>
       <c r="R6">
-        <v>0.8238047166845526</v>
+        <v>10.201259531157</v>
       </c>
       <c r="S6">
-        <v>0.05510315863696561</v>
+        <v>0.0560512028735772</v>
       </c>
       <c r="T6">
-        <v>0.05510315863696561</v>
+        <v>0.05605120287357721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H7">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I7">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J7">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.02297466175175</v>
+        <v>2.319272333333334</v>
       </c>
       <c r="N7">
-        <v>2.02297466175175</v>
+        <v>6.957817</v>
       </c>
       <c r="O7">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="P7">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="Q7">
-        <v>0.6118959625883797</v>
+        <v>0.9590477141921112</v>
       </c>
       <c r="R7">
-        <v>0.6118959625883797</v>
+        <v>8.631429427729</v>
       </c>
       <c r="S7">
-        <v>0.04092887502698916</v>
+        <v>0.04742571252745405</v>
       </c>
       <c r="T7">
-        <v>0.04092887502698916</v>
+        <v>0.04742571252745405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H8">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J8">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N8">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O8">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P8">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q8">
-        <v>0.4683897897476569</v>
+        <v>0.6983019487016667</v>
       </c>
       <c r="R8">
-        <v>0.4683897897476569</v>
+        <v>6.284717538315</v>
       </c>
       <c r="S8">
-        <v>0.03132994551460314</v>
+        <v>0.0345316160879273</v>
       </c>
       <c r="T8">
-        <v>0.03132994551460314</v>
+        <v>0.03453161608792731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H9">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J9">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N9">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O9">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P9">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q9">
-        <v>0.9234919365322793</v>
+        <v>0.9769100755715556</v>
       </c>
       <c r="R9">
-        <v>0.9234919365322793</v>
+        <v>8.792190680144001</v>
       </c>
       <c r="S9">
-        <v>0.06177109896080177</v>
+        <v>0.04830902125475407</v>
       </c>
       <c r="T9">
-        <v>0.06177109896080177</v>
+        <v>0.04830902125475408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H10">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J10">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N10">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O10">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P10">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q10">
-        <v>0.75094089113436</v>
+        <v>0.7986257658955556</v>
       </c>
       <c r="R10">
-        <v>0.75094089113436</v>
+        <v>7.18763189306</v>
       </c>
       <c r="S10">
-        <v>0.05022939807591038</v>
+        <v>0.03949271285452794</v>
       </c>
       <c r="T10">
-        <v>0.05022939807591038</v>
+        <v>0.03949271285452795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H11">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J11">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N11">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O11">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P11">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q11">
-        <v>0.7008876231773133</v>
+        <v>0.7337286928748888</v>
       </c>
       <c r="R11">
-        <v>0.7008876231773133</v>
+        <v>6.603558235874001</v>
       </c>
       <c r="S11">
-        <v>0.04688140417799269</v>
+        <v>0.03628349825195312</v>
       </c>
       <c r="T11">
-        <v>0.04688140417799269</v>
+        <v>0.03628349825195313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H12">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J12">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N12">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O12">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P12">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q12">
-        <v>1.602095221036946</v>
+        <v>1.654992493859667</v>
       </c>
       <c r="R12">
-        <v>1.602095221036946</v>
+        <v>14.894932444737</v>
       </c>
       <c r="S12">
-        <v>0.1071619345317821</v>
+        <v>0.08184076463286402</v>
       </c>
       <c r="T12">
-        <v>0.1071619345317821</v>
+        <v>0.08184076463286404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H13">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J13">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.02297466175175</v>
+        <v>2.319272333333334</v>
       </c>
       <c r="N13">
-        <v>2.02297466175175</v>
+        <v>6.957817</v>
       </c>
       <c r="O13">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="P13">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="Q13">
-        <v>1.189985414723017</v>
+        <v>1.400312468332111</v>
       </c>
       <c r="R13">
-        <v>1.189985414723017</v>
+        <v>12.602812214989</v>
       </c>
       <c r="S13">
-        <v>0.0795964793052602</v>
+        <v>0.06924662411366246</v>
       </c>
       <c r="T13">
-        <v>0.0795964793052602</v>
+        <v>0.06924662411366247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H14">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N14">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O14">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P14">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q14">
-        <v>0.2207816400121629</v>
+        <v>0.3483465833933334</v>
       </c>
       <c r="R14">
-        <v>0.2207816400121629</v>
+        <v>3.13511925054</v>
       </c>
       <c r="S14">
-        <v>0.01476777868264877</v>
+        <v>0.01722603023755678</v>
       </c>
       <c r="T14">
-        <v>0.01476777868264877</v>
+        <v>0.01722603023755679</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H15">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N15">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O15">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P15">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q15">
-        <v>0.4352999761063319</v>
+        <v>0.4873297113671111</v>
       </c>
       <c r="R15">
-        <v>0.4352999761063319</v>
+        <v>4.385967402304001</v>
       </c>
       <c r="S15">
-        <v>0.02911661362487598</v>
+        <v>0.02409886229367948</v>
       </c>
       <c r="T15">
-        <v>0.02911661362487598</v>
+        <v>0.02409886229367949</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H16">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N16">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O16">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P16">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q16">
-        <v>0.3539657890197818</v>
+        <v>0.3983929265511111</v>
       </c>
       <c r="R16">
-        <v>0.3539657890197818</v>
+        <v>3.58553633896</v>
       </c>
       <c r="S16">
-        <v>0.02367628229043553</v>
+        <v>0.01970086381312135</v>
       </c>
       <c r="T16">
-        <v>0.02367628229043553</v>
+        <v>0.01970086381312135</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H17">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I17">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J17">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N17">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O17">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P17">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q17">
-        <v>0.3303725279594187</v>
+        <v>0.3660191465537778</v>
       </c>
       <c r="R17">
-        <v>0.3303725279594187</v>
+        <v>3.294172318984</v>
       </c>
       <c r="S17">
-        <v>0.02209816167441781</v>
+        <v>0.01809995328399931</v>
       </c>
       <c r="T17">
-        <v>0.02209816167441781</v>
+        <v>0.01809995328399932</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H18">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I18">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J18">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N18">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O18">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P18">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q18">
-        <v>0.7551684902156964</v>
+        <v>0.8255898209213334</v>
       </c>
       <c r="R18">
-        <v>0.7551684902156964</v>
+        <v>7.430308388292001</v>
       </c>
       <c r="S18">
-        <v>0.05051217633405135</v>
+        <v>0.04082610795396179</v>
       </c>
       <c r="T18">
-        <v>0.05051217633405135</v>
+        <v>0.0408261079539618</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H19">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I19">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J19">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.02297466175175</v>
+        <v>2.319272333333334</v>
       </c>
       <c r="N19">
-        <v>2.02297466175175</v>
+        <v>6.957817</v>
       </c>
       <c r="O19">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="P19">
-        <v>0.2111479011253475</v>
+        <v>0.2235895276754269</v>
       </c>
       <c r="Q19">
-        <v>0.560915154864167</v>
+        <v>0.6985431802582223</v>
       </c>
       <c r="R19">
-        <v>0.560915154864167</v>
+        <v>6.286888622324001</v>
       </c>
       <c r="S19">
-        <v>0.03751883927631545</v>
+        <v>0.03454354519039473</v>
       </c>
       <c r="T19">
-        <v>0.03751883927631545</v>
+        <v>0.03454354519039474</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H20">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.796262428731776</v>
+        <v>1.156565</v>
       </c>
       <c r="N20">
-        <v>0.796262428731776</v>
+        <v>3.469695</v>
       </c>
       <c r="O20">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="P20">
-        <v>0.08310985982696313</v>
+        <v>0.1114986879114225</v>
       </c>
       <c r="Q20">
-        <v>0.3124916405311804</v>
+        <v>0.1527479250716667</v>
       </c>
       <c r="R20">
-        <v>0.3124916405311804</v>
+        <v>1.374731325645</v>
       </c>
       <c r="S20">
-        <v>0.02090213383362891</v>
+        <v>0.007553512798595586</v>
       </c>
       <c r="T20">
-        <v>0.02090213383362891</v>
+        <v>0.007553512798595588</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H21">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I21">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J21">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.56993587049275</v>
+        <v>1.618010666666667</v>
       </c>
       <c r="N21">
-        <v>1.56993587049275</v>
+        <v>4.854032</v>
       </c>
       <c r="O21">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="P21">
-        <v>0.1638619950231578</v>
+        <v>0.1559843730011019</v>
       </c>
       <c r="Q21">
-        <v>0.616118277086616</v>
+        <v>0.2136912080835555</v>
       </c>
       <c r="R21">
-        <v>0.616118277086616</v>
+        <v>1.923220872752</v>
       </c>
       <c r="S21">
-        <v>0.04121129980667218</v>
+        <v>0.01056720917452183</v>
       </c>
       <c r="T21">
-        <v>0.04121129980667218</v>
+        <v>0.01056720917452183</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H22">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I22">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J22">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.27659917209295</v>
+        <v>1.322726666666667</v>
       </c>
       <c r="N22">
-        <v>1.27659917209295</v>
+        <v>3.96818</v>
       </c>
       <c r="O22">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019003</v>
       </c>
       <c r="P22">
-        <v>0.1332449886111627</v>
+        <v>0.1275175090019004</v>
       </c>
       <c r="Q22">
-        <v>0.5009988606689021</v>
+        <v>0.1746929517755555</v>
       </c>
       <c r="R22">
-        <v>0.5009988606689021</v>
+        <v>1.57223656598</v>
       </c>
       <c r="S22">
-        <v>0.03351112118838297</v>
+        <v>0.008638712744817924</v>
       </c>
       <c r="T22">
-        <v>0.03351112118838297</v>
+        <v>0.008638712744817928</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H23">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I23">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J23">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.19150863941735</v>
+        <v>1.215240666666667</v>
       </c>
       <c r="N23">
-        <v>1.19150863941735</v>
+        <v>3.645722</v>
       </c>
       <c r="O23">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="P23">
-        <v>0.1243636675942534</v>
+        <v>0.1171553175393823</v>
       </c>
       <c r="Q23">
-        <v>0.4676052467170033</v>
+        <v>0.1604972399268889</v>
       </c>
       <c r="R23">
-        <v>0.4676052467170033</v>
+        <v>1.444475159342</v>
       </c>
       <c r="S23">
-        <v>0.03127746851586779</v>
+        <v>0.007936722907091688</v>
       </c>
       <c r="T23">
-        <v>0.03127746851586779</v>
+        <v>0.00793672290709169</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H24">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I24">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J24">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.72356114434032</v>
+        <v>2.741087</v>
       </c>
       <c r="N24">
-        <v>2.72356114434032</v>
+        <v>8.223261000000001</v>
       </c>
       <c r="O24">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="P24">
-        <v>0.2842715878191155</v>
+        <v>0.264254584870766</v>
       </c>
       <c r="Q24">
-        <v>1.068856270711447</v>
+        <v>0.3620162737856666</v>
       </c>
       <c r="R24">
-        <v>1.068856270711447</v>
+        <v>3.258146464071</v>
       </c>
       <c r="S24">
-        <v>0.0714943183163165</v>
+        <v>0.01790200787380215</v>
       </c>
       <c r="T24">
-        <v>0.0714943183163165</v>
+        <v>0.01790200787380215</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.396211</v>
+      </c>
+      <c r="I25">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J25">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.319272333333334</v>
+      </c>
+      <c r="N25">
+        <v>6.957817</v>
+      </c>
+      <c r="O25">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="P25">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="Q25">
+        <v>0.3063070701541111</v>
+      </c>
+      <c r="R25">
+        <v>2.756763631387</v>
+      </c>
+      <c r="S25">
+        <v>0.01514714110600095</v>
+      </c>
+      <c r="T25">
+        <v>0.01514714110600095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.223082</v>
+      </c>
+      <c r="I26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.156565</v>
+      </c>
+      <c r="N26">
+        <v>3.469695</v>
+      </c>
+      <c r="O26">
+        <v>0.1114986879114225</v>
+      </c>
+      <c r="P26">
+        <v>0.1114986879114225</v>
+      </c>
+      <c r="Q26">
+        <v>0.08600294444333334</v>
+      </c>
+      <c r="R26">
+        <v>0.7740264999900001</v>
+      </c>
+      <c r="S26">
+        <v>0.004252917617472258</v>
+      </c>
+      <c r="T26">
+        <v>0.004252917617472258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.223082</v>
+      </c>
+      <c r="I27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.618010666666667</v>
+      </c>
+      <c r="N27">
+        <v>4.854032</v>
+      </c>
+      <c r="O27">
+        <v>0.1559843730011019</v>
+      </c>
+      <c r="P27">
+        <v>0.1559843730011019</v>
+      </c>
+      <c r="Q27">
+        <v>0.1203163518471111</v>
+      </c>
+      <c r="R27">
+        <v>1.082847166624</v>
+      </c>
+      <c r="S27">
+        <v>0.005949744345994129</v>
+      </c>
+      <c r="T27">
+        <v>0.005949744345994129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.223082</v>
+      </c>
+      <c r="I28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.322726666666667</v>
+      </c>
+      <c r="N28">
+        <v>3.96818</v>
+      </c>
+      <c r="O28">
+        <v>0.1275175090019003</v>
+      </c>
+      <c r="P28">
+        <v>0.1275175090019004</v>
+      </c>
+      <c r="Q28">
+        <v>0.09835883675111111</v>
+      </c>
+      <c r="R28">
+        <v>0.88522953076</v>
+      </c>
+      <c r="S28">
+        <v>0.004863926838324712</v>
+      </c>
+      <c r="T28">
+        <v>0.004863926838324713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.223082</v>
+      </c>
+      <c r="I29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.215240666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.645722</v>
+      </c>
+      <c r="O29">
+        <v>0.1171553175393823</v>
+      </c>
+      <c r="P29">
+        <v>0.1171553175393823</v>
+      </c>
+      <c r="Q29">
+        <v>0.09036610613377778</v>
+      </c>
+      <c r="R29">
+        <v>0.8132949552040001</v>
+      </c>
+      <c r="S29">
+        <v>0.004468679616567506</v>
+      </c>
+      <c r="T29">
+        <v>0.004468679616567507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.223082</v>
+      </c>
+      <c r="I30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.741087</v>
+      </c>
+      <c r="N30">
+        <v>8.223261000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.264254584870766</v>
+      </c>
+      <c r="P30">
+        <v>0.264254584870766</v>
+      </c>
+      <c r="Q30">
+        <v>0.2038290567113334</v>
+      </c>
+      <c r="R30">
+        <v>1.834461510402</v>
+      </c>
+      <c r="S30">
+        <v>0.01007951753107191</v>
+      </c>
+      <c r="T30">
+        <v>0.01007951753107191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.223082</v>
+      </c>
+      <c r="I31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.319272333333334</v>
+      </c>
+      <c r="N31">
+        <v>6.957817</v>
+      </c>
+      <c r="O31">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="P31">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="Q31">
+        <v>0.1724626368882222</v>
+      </c>
+      <c r="R31">
+        <v>1.552163731994</v>
+      </c>
+      <c r="S31">
+        <v>0.008528421806080355</v>
+      </c>
+      <c r="T31">
+        <v>0.008528421806080355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H32">
+        <v>1.273819</v>
+      </c>
+      <c r="I32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.156565</v>
+      </c>
+      <c r="N32">
+        <v>3.469695</v>
+      </c>
+      <c r="O32">
+        <v>0.1114986879114225</v>
+      </c>
+      <c r="P32">
+        <v>0.1114986879114225</v>
+      </c>
+      <c r="Q32">
+        <v>0.4910848239116667</v>
+      </c>
+      <c r="R32">
+        <v>4.419763415205001</v>
+      </c>
+      <c r="S32">
+        <v>0.02428455575335928</v>
+      </c>
+      <c r="T32">
+        <v>0.02428455575335928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H33">
+        <v>1.273819</v>
+      </c>
+      <c r="I33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.618010666666667</v>
+      </c>
+      <c r="N33">
+        <v>4.854032</v>
+      </c>
+      <c r="O33">
+        <v>0.1559843730011019</v>
+      </c>
+      <c r="P33">
+        <v>0.1559843730011019</v>
+      </c>
+      <c r="Q33">
+        <v>0.6870175764675556</v>
+      </c>
+      <c r="R33">
+        <v>6.183158188208</v>
+      </c>
+      <c r="S33">
+        <v>0.03397359443195729</v>
+      </c>
+      <c r="T33">
+        <v>0.03397359443195729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H34">
+        <v>1.273819</v>
+      </c>
+      <c r="I34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1.322726666666667</v>
+      </c>
+      <c r="N34">
+        <v>3.96818</v>
+      </c>
+      <c r="O34">
+        <v>0.1275175090019003</v>
+      </c>
+      <c r="P34">
+        <v>0.1275175090019004</v>
+      </c>
+      <c r="Q34">
+        <v>0.5616381199355556</v>
+      </c>
+      <c r="R34">
+        <v>5.05474307942</v>
+      </c>
+      <c r="S34">
+        <v>0.02777347531969386</v>
+      </c>
+      <c r="T34">
+        <v>0.02777347531969387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="H25">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="I25">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="J25">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.02297466175175</v>
-      </c>
-      <c r="N25">
-        <v>2.02297466175175</v>
-      </c>
-      <c r="O25">
-        <v>0.2111479011253475</v>
-      </c>
-      <c r="P25">
-        <v>0.2111479011253475</v>
-      </c>
-      <c r="Q25">
-        <v>0.7939124690470113</v>
-      </c>
-      <c r="R25">
-        <v>0.7939124690470113</v>
-      </c>
-      <c r="S25">
-        <v>0.05310370751678269</v>
-      </c>
-      <c r="T25">
-        <v>0.05310370751678269</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H35">
+        <v>1.273819</v>
+      </c>
+      <c r="I35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.215240666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.645722</v>
+      </c>
+      <c r="O35">
+        <v>0.1171553175393823</v>
+      </c>
+      <c r="P35">
+        <v>0.1171553175393823</v>
+      </c>
+      <c r="Q35">
+        <v>0.5159988835908889</v>
+      </c>
+      <c r="R35">
+        <v>4.643989952318</v>
+      </c>
+      <c r="S35">
+        <v>0.02551657686633796</v>
+      </c>
+      <c r="T35">
+        <v>0.02551657686633796</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H36">
+        <v>1.273819</v>
+      </c>
+      <c r="I36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.741087</v>
+      </c>
+      <c r="N36">
+        <v>8.223261000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.264254584870766</v>
+      </c>
+      <c r="P36">
+        <v>0.264254584870766</v>
+      </c>
+      <c r="Q36">
+        <v>1.163882900417667</v>
+      </c>
+      <c r="R36">
+        <v>10.474946103759</v>
+      </c>
+      <c r="S36">
+        <v>0.05755498400548895</v>
+      </c>
+      <c r="T36">
+        <v>0.05755498400548895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H37">
+        <v>1.273819</v>
+      </c>
+      <c r="I37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.319272333333334</v>
+      </c>
+      <c r="N37">
+        <v>6.957817</v>
+      </c>
+      <c r="O37">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="P37">
+        <v>0.2235895276754269</v>
+      </c>
+      <c r="Q37">
+        <v>0.9847777214581113</v>
+      </c>
+      <c r="R37">
+        <v>8.862999493123001</v>
+      </c>
+      <c r="S37">
+        <v>0.04869808293183436</v>
+      </c>
+      <c r="T37">
+        <v>0.04869808293183436</v>
       </c>
     </row>
   </sheetData>
